--- a/Descargas/R15_10º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Octubre.xlsx
+++ b/Descargas/R15_10º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Octubre.xlsx
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="B58" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="B59" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -947,10 +947,20 @@
     <row r="75">
       <c t="inlineStr" r="A75">
         <is>
+          <t xml:space="preserve">Usurpacion De Nombre.</t>
+        </is>
+      </c>
+      <c r="B75" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c t="inlineStr" r="A76">
+        <is>
           <t xml:space="preserve">Violacion  De Morada.</t>
         </is>
       </c>
-      <c r="B75" s="65">
+      <c r="B76" s="65">
         <v>2</v>
       </c>
     </row>
